--- a/organised_code/Results_all.xlsx
+++ b/organised_code/Results_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ann Marie\Studium\Master\3. Semester\Industrial Project\IndustrialProject\organised_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C291F2E-5856-4DC0-856A-8D0AD917BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E477AC7-A638-4910-81CB-2F7AC3F7907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F89DFC77-8F58-471C-AD01-676242773B2E}"/>
   </bookViews>
@@ -162,12 +162,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,9 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451230A7-B0DB-466E-B56E-1429716CCF6F}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,19 +2014,19 @@
         <v>27</v>
       </c>
       <c r="B41">
-        <v>2.6392099711344201</v>
+        <v>2.8586820070451302</v>
       </c>
       <c r="C41">
         <v>56.147228240966797</v>
       </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
+      <c r="D41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,18 +2034,18 @@
         <v>28</v>
       </c>
       <c r="B42">
-        <v>4.2656949747142701</v>
+        <v>4.4670374799057297</v>
       </c>
       <c r="C42">
         <v>56.51558303833</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
+      <c r="D42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2040,18 +2054,18 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>7.9908593883127796</v>
+        <v>7.8176764588627199</v>
       </c>
       <c r="C43">
         <v>55.479152679443303</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
+      <c r="D43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2060,18 +2074,18 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>2.38332806364645</v>
+        <v>2.7183759229346598</v>
       </c>
       <c r="C44">
         <v>55.731662750244098</v>
       </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
+      <c r="D44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2080,18 +2094,18 @@
         <v>29</v>
       </c>
       <c r="B45">
-        <v>6.3740661432258197</v>
+        <v>6.5742405494284402</v>
       </c>
       <c r="C45">
         <v>55.915802001953097</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
+      <c r="D45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2100,18 +2114,18 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <v>4.27825962573126</v>
+        <v>4.5100940029224503</v>
       </c>
       <c r="C46">
         <v>55.774360656738203</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
+      <c r="D46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2120,18 +2134,18 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>4.0129790345168797</v>
+        <v>4.1756185896487601</v>
       </c>
       <c r="C47">
         <v>56.078155517578097</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
+      <c r="D47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2140,18 +2154,18 @@
         <v>31</v>
       </c>
       <c r="B48">
-        <v>3.6645664805828</v>
+        <v>4.0922322701454803</v>
       </c>
       <c r="C48">
         <v>70.783218383789006</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="b">
+      <c r="D48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2160,18 +2174,18 @@
         <v>32</v>
       </c>
       <c r="B49">
-        <v>2.78085976855149</v>
+        <v>2.9757953383697</v>
       </c>
       <c r="C49">
         <v>51.381370544433501</v>
       </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="b">
+      <c r="D49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2180,18 +2194,18 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>3.8381942675138601</v>
+        <v>3.9547032987089699</v>
       </c>
       <c r="C50">
         <v>49.3890991210937</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="b">
+      <c r="D50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2200,18 +2214,18 @@
         <v>33</v>
       </c>
       <c r="B51">
-        <v>3.3391926994177701</v>
+        <v>3.5394233690408399</v>
       </c>
       <c r="C51">
         <v>55.8471870422363</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
+      <c r="D51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2220,18 +2234,18 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>3.4761586751854798</v>
+        <v>3.6683115682283902</v>
       </c>
       <c r="C52">
         <v>55.701595306396399</v>
       </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="b">
+      <c r="D52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2240,18 +2254,18 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>7.5711775675677204</v>
+        <v>7.4205882463002597</v>
       </c>
       <c r="C53">
         <v>55.740100860595703</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="b">
+      <c r="D53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2260,18 +2274,18 @@
         <v>34</v>
       </c>
       <c r="B54">
-        <v>2.5619030594916401</v>
+        <v>2.7444469282207602</v>
       </c>
       <c r="C54">
         <v>70.114288330078097</v>
       </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" t="b">
+      <c r="D54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="b">
         <v>1</v>
       </c>
     </row>
